--- a/files/excel/archiver.xlsx
+++ b/files/excel/archiver.xlsx
@@ -4692,7 +4692,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>test</t>
+    <t>test11111</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5194,6 +5194,24 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5213,24 +5231,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6317,13 +6317,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="93"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="99"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -6609,13 +6609,13 @@
       <c r="F21" s="19"/>
     </row>
     <row r="22" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="95"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="101"/>
       <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6673,7 +6673,7 @@
         <v>70</v>
       </c>
       <c r="J25" s="3"/>
-      <c r="K25" s="96" t="s">
+      <c r="K25" s="102" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6700,7 +6700,7 @@
         <v>74</v>
       </c>
       <c r="J26" s="3"/>
-      <c r="K26" s="97"/>
+      <c r="K26" s="103"/>
     </row>
     <row r="27" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
@@ -6725,7 +6725,7 @@
         <v>74</v>
       </c>
       <c r="J27" s="3"/>
-      <c r="K27" s="97"/>
+      <c r="K27" s="103"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
@@ -6774,7 +6774,7 @@
         <v>74</v>
       </c>
       <c r="J29" s="3"/>
-      <c r="K29" s="97" t="s">
+      <c r="K29" s="103" t="s">
         <v>90</v>
       </c>
     </row>
@@ -6800,7 +6800,7 @@
         <v>74</v>
       </c>
       <c r="J30" s="3"/>
-      <c r="K30" s="97"/>
+      <c r="K30" s="103"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
@@ -6862,13 +6862,13 @@
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="98" t="s">
+      <c r="A36" s="95" t="s">
         <v>253</v>
       </c>
-      <c r="B36" s="98"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="98"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
@@ -7470,13 +7470,13 @@
       <c r="F80" s="21"/>
     </row>
     <row r="81" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="90" t="s">
+      <c r="A81" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="B81" s="90"/>
-      <c r="C81" s="90"/>
-      <c r="D81" s="90"/>
-      <c r="E81" s="90"/>
+      <c r="B81" s="96"/>
+      <c r="C81" s="96"/>
+      <c r="D81" s="96"/>
+      <c r="E81" s="96"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
@@ -7624,13 +7624,13 @@
       <c r="E92" s="10"/>
     </row>
     <row r="93" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="99" t="s">
+      <c r="A93" s="90" t="s">
         <v>170</v>
       </c>
-      <c r="B93" s="99"/>
-      <c r="C93" s="99"/>
-      <c r="D93" s="99"/>
-      <c r="E93" s="99"/>
+      <c r="B93" s="90"/>
+      <c r="C93" s="90"/>
+      <c r="D93" s="90"/>
+      <c r="E93" s="90"/>
       <c r="G93" s="30" t="s">
         <v>171</v>
       </c>
@@ -7832,13 +7832,13 @@
       </c>
     </row>
     <row r="109" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="100" t="s">
+      <c r="A109" s="91" t="s">
         <v>189</v>
       </c>
-      <c r="B109" s="100"/>
-      <c r="C109" s="100"/>
-      <c r="D109" s="100"/>
-      <c r="E109" s="100"/>
+      <c r="B109" s="91"/>
+      <c r="C109" s="91"/>
+      <c r="D109" s="91"/>
+      <c r="E109" s="91"/>
       <c r="G109" s="30" t="s">
         <v>171</v>
       </c>
@@ -7976,9 +7976,9 @@
       <c r="C120" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="D120" s="101"/>
-      <c r="E120" s="101"/>
-      <c r="F120" s="101"/>
+      <c r="D120" s="92"/>
+      <c r="E120" s="92"/>
+      <c r="F120" s="92"/>
     </row>
     <row r="121" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
@@ -8030,7 +8030,7 @@
         <v>115</v>
       </c>
       <c r="E123" s="34"/>
-      <c r="F123" s="102"/>
+      <c r="F123" s="93"/>
     </row>
     <row r="124" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
@@ -8048,7 +8048,7 @@
       <c r="E124" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="F124" s="103"/>
+      <c r="F124" s="94"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
@@ -8634,13 +8634,13 @@
       <c r="E169" s="21"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="98" t="s">
+      <c r="A170" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="B170" s="98"/>
-      <c r="C170" s="98"/>
-      <c r="D170" s="98"/>
-      <c r="E170" s="98"/>
+      <c r="B170" s="95"/>
+      <c r="C170" s="95"/>
+      <c r="D170" s="95"/>
+      <c r="E170" s="95"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
@@ -8844,17 +8844,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="A170:E170"/>
     <mergeCell ref="A81:E81"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="K25:K27"/>
     <mergeCell ref="K29:K30"/>
     <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="A170:E170"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14142,12 +14142,12 @@
       <c r="A53" s="36"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="97" t="s">
+      <c r="A54" s="103" t="s">
         <v>965</v>
       </c>
-      <c r="B54" s="97"/>
-      <c r="C54" s="97"/>
-      <c r="D54" s="97"/>
+      <c r="B54" s="103"/>
+      <c r="C54" s="103"/>
+      <c r="D54" s="103"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
@@ -15107,12 +15107,12 @@
       <c r="D29" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="97" t="s">
+      <c r="A31" s="103" t="s">
         <v>1117</v>
       </c>
-      <c r="B31" s="97"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
@@ -15289,12 +15289,12 @@
       <c r="D45" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="97" t="s">
+      <c r="A47" s="103" t="s">
         <v>1116</v>
       </c>
-      <c r="B47" s="97"/>
-      <c r="C47" s="97"/>
-      <c r="D47" s="97"/>
+      <c r="B47" s="103"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="103"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
@@ -16035,12 +16035,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="103" t="s">
         <v>1147</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="88" t="s">
@@ -16175,12 +16175,12 @@
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="103" t="s">
         <v>1172</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="88" t="s">
@@ -16295,12 +16295,12 @@
       <c r="D22" s="89"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="97" t="s">
+      <c r="A24" s="103" t="s">
         <v>1193</v>
       </c>
-      <c r="B24" s="97"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="88" t="s">
@@ -16433,12 +16433,12 @@
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="97" t="s">
+      <c r="A36" s="103" t="s">
         <v>1200</v>
       </c>
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="88" t="s">
